--- a/xlsx/虚拟国际规范文档_intext.xlsx
+++ b/xlsx/虚拟国际规范文档_intext.xlsx
@@ -29,13 +29,13 @@
     <t>规范文档</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_虚拟国际规范文档</t>
+    <t>政策_政策_维基百科_虚拟国际规范文档</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%9A%E4%B8%8A%E9%9B%BB%E8%85%A6%E5%9C%96%E6%9B%B8%E9%A4%A8%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>線上電腦圖書館中心</t>
+    <t>线上电脑图书馆中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -77,19 +77,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>葡萄牙國家圖書館</t>
+    <t>葡萄牙国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E7%9A%87%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>瑞典皇家圖書館</t>
+    <t>瑞典皇家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>瑞士國家圖書館</t>
+    <t>瑞士国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -113,7 +113,7 @@
     <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%9B%B3%E6%9B%B8%E9%A4%A8%E5%8D%94%E4%BC%9A</t>
   </si>
   <si>
-    <t>ja-日本図書館協会</t>
+    <t>ja-日本図书馆协会</t>
   </si>
 </sst>
 </file>

--- a/xlsx/虚拟国际规范文档_intext.xlsx
+++ b/xlsx/虚拟国际规范文档_intext.xlsx
@@ -29,7 +29,7 @@
     <t>规范文档</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_虚拟国际规范文档</t>
+    <t>体育运动_体育运动_明成祖_虚拟国际规范文档</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%9A%E4%B8%8A%E9%9B%BB%E8%85%A6%E5%9C%96%E6%9B%B8%E9%A4%A8%E4%B8%AD%E5%BF%83</t>
